--- a/lab2/task1.xlsx
+++ b/lab2/task1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\itmo 3rd year\applied-pogramming\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FBADD2-6987-487F-984A-12031B8B3C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9CB67B-8620-4393-A46A-BF60BE33F524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11628" yWindow="2760" windowWidth="9984" windowHeight="9324" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -341,7 +341,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
